--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,10 +53,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY\ H:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="\￥#,##0.00&quot;円也&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -129,7 +131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,6 +145,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,7 +175,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -219,20 +229,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1234.56</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1234.56</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1234.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -53,12 +53,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY\ H:MM:SS"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="\￥#,##0.00&quot;円也&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$￥-411]#,##0;[RED]\-[$￥-411]#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -131,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,6 +154,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,10 +234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -255,6 +260,9 @@
         <v>1234.56</v>
       </c>
       <c r="C2" s="5" t="n">
+        <v>1234.56</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>1234.56</v>
       </c>
     </row>
